--- a/data/trans_camb/P1404-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.6145468698550899</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.41613634378616</v>
+        <v>2.416136343786163</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2513785840219052</v>
@@ -664,7 +664,7 @@
         <v>0.1400601267687984</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.766741190516966</v>
+        <v>2.766741190516964</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.457590214670924</v>
+        <v>-3.189132627487888</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.886548263495326</v>
+        <v>-2.283238555785659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7805794733698022</v>
+        <v>-0.3468361653959081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.385806545223808</v>
+        <v>-2.312995040612306</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.641208244936785</v>
+        <v>-3.917023301232335</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.892213250195581</v>
+        <v>-0.978566047311767</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.312840589680993</v>
+        <v>-2.121548023208992</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.055265210960435</v>
+        <v>-2.079240729140738</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05094902776370067</v>
+        <v>0.05434112059420055</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.477522607024242</v>
+        <v>3.60846620713409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.87573198173754</v>
+        <v>4.715811456969407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.389141773068819</v>
+        <v>7.944389224712466</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.295500472500162</v>
+        <v>4.178388896077687</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.515977141143721</v>
+        <v>2.454853746325781</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.736324087710407</v>
+        <v>5.736483721479746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.549252267001414</v>
+        <v>2.721669350066253</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.415068346669455</v>
+        <v>2.436154845403581</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.351473912197968</v>
+        <v>5.491684762211671</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.03957979445112109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1556108810309115</v>
+        <v>0.1556108810309117</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01775388763990177</v>
@@ -769,7 +769,7 @@
         <v>0.009891899754145174</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1954041248829929</v>
+        <v>0.1954041248829927</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2477744911468761</v>
+        <v>-0.2247318800598716</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1357457442793243</v>
+        <v>-0.162249702561891</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05565026332151359</v>
+        <v>-0.02721595106417859</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1347738001095908</v>
+        <v>-0.1336606731241865</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.209811915138889</v>
+        <v>-0.2238897749675836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05163313671500975</v>
+        <v>-0.05748322382921922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1451474805881312</v>
+        <v>-0.1366945749043591</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.132332832059147</v>
+        <v>-0.1330366974085252</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.002361668141167733</v>
+        <v>0.009635895294804825</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3593156844961885</v>
+        <v>0.347320356291288</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4940932606932679</v>
+        <v>0.4719975671277181</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7198291295848738</v>
+        <v>0.7439076358451761</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3239782800757903</v>
+        <v>0.3042961193453925</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1856459335401558</v>
+        <v>0.174485461115214</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4113343463954934</v>
+        <v>0.4300832370161236</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1939400023964867</v>
+        <v>0.2104524515042537</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1909274300699845</v>
+        <v>0.1915034416247019</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4077440906281949</v>
+        <v>0.4331312839961663</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.665691338458657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.946961979193079</v>
+        <v>5.946961979193073</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.878181730551758</v>
@@ -869,7 +869,7 @@
         <v>3.115997612754615</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.766194638881349</v>
+        <v>7.766194638881344</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.57562349757591</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4500935956820369</v>
+        <v>-0.337163560602102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.09069433701924307</v>
+        <v>0.06706282368654021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.980318981676417</v>
+        <v>3.390034971778196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1863256380143324</v>
+        <v>0.05978522286046932</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3224238244181734</v>
+        <v>0.2527181323019622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.306120039357745</v>
+        <v>5.382864790044295</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6910350272437614</v>
+        <v>0.865182381153857</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.002461469448082</v>
+        <v>1.119683623932188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.221548392182692</v>
+        <v>5.002050308878422</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.873509536010479</v>
+        <v>4.912865394504104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.51359686251982</v>
+        <v>5.21335989786091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.359793299706606</v>
+        <v>8.572933937765587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.603376625981044</v>
+        <v>5.346667119013148</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.06293377068536</v>
+        <v>5.672229922774872</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.17890624370828</v>
+        <v>10.53986939019805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.386829452096778</v>
+        <v>4.435600880221239</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.754468125438192</v>
+        <v>4.993621819087181</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.706055620577008</v>
+        <v>8.939915536309099</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3375788898861573</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7531137585839142</v>
+        <v>0.7531137585839134</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3144936423521378</v>
@@ -974,7 +974,7 @@
         <v>0.3404793479138312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8485978537321964</v>
+        <v>0.8485978537321959</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3023683677096902</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05442195837163551</v>
+        <v>-0.03828606934078552</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01398502916211402</v>
+        <v>0.005743913965706596</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3227756330697243</v>
+        <v>0.3769922115534181</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01612337922109009</v>
+        <v>0.008926678313154898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0231786366292354</v>
+        <v>0.01408319054061728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4864758275963342</v>
+        <v>0.4965317057730297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07328998010014126</v>
+        <v>0.08849361913970824</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09108906438653834</v>
+        <v>0.1096246099255178</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5514540113935827</v>
+        <v>0.532086110674956</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6923899397370941</v>
+        <v>0.7375193659803597</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8255072815174245</v>
+        <v>0.7539358037523296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.258347728863497</v>
+        <v>1.294663086757665</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7116358938765138</v>
+        <v>0.691241215839548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7344782236267686</v>
+        <v>0.7115441783445654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.307255492271712</v>
+        <v>1.35513079979677</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.577312952965001</v>
+        <v>0.5739184496643746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6189749670162783</v>
+        <v>0.6309371276160527</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.130304593561902</v>
+        <v>1.15280045949404</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.085495808591265</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.516088172797303</v>
+        <v>7.516088172797305</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.831299628239553</v>
@@ -1092,7 +1092,7 @@
         <v>3.815159000752172</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.69426666024378</v>
+        <v>6.694266660243778</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.057996183582936</v>
+        <v>3.815074091962967</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.486284803368563</v>
+        <v>1.764923074908144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.967291294736245</v>
+        <v>5.150642301118296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.728177861685103</v>
+        <v>2.950503291645236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5150126557954836</v>
+        <v>0.5665235748400008</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.201264264219714</v>
+        <v>3.128356741114163</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.287212244404452</v>
+        <v>4.379132194927882</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.730195633785108</v>
+        <v>1.967520149861752</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.836991339870774</v>
+        <v>4.838916177940537</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.594413537547519</v>
+        <v>9.346029601768022</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.730161916191355</v>
+        <v>6.774368472567676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.764878717830415</v>
+        <v>9.833051189002751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.620817189853931</v>
+        <v>8.689683218947259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.884387797651953</v>
+        <v>6.458202937634253</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.054808616430996</v>
+        <v>8.077487870968927</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.312958271714738</v>
+        <v>8.373690450819169</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.858742623135623</v>
+        <v>6.004473291955616</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.260900351231619</v>
+        <v>8.419540373433698</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.6524475846228699</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.200308066365398</v>
+        <v>1.200308066365399</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7001990004155565</v>
@@ -1197,7 +1197,7 @@
         <v>0.5274956074562626</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9255698799770368</v>
+        <v>0.9255698799770364</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5368669584466855</v>
+        <v>0.5001753864459494</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2151181796762377</v>
+        <v>0.235293483463567</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6694688937908136</v>
+        <v>0.6533424524192403</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.280862289334579</v>
+        <v>0.3254333761642366</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05265661710442465</v>
+        <v>0.05581190524813144</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3333519295985783</v>
+        <v>0.3143788044622851</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5219961010393286</v>
+        <v>0.5596520410249962</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2024390764273182</v>
+        <v>0.233239272553099</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5936468863168943</v>
+        <v>0.5976732325299915</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.812759239074576</v>
+        <v>1.764872311580885</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.304630796230748</v>
+        <v>1.265812488249834</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.865717788115759</v>
+        <v>1.831574754693841</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.211222578178696</v>
+        <v>1.24550376985594</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9529852495007677</v>
+        <v>0.9001337838561742</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.17811169474706</v>
+        <v>1.162693284252672</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.293000840427138</v>
+        <v>1.344993666506133</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8873292106571469</v>
+        <v>0.9130449124095178</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.303392827005166</v>
+        <v>1.315694732569137</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.506246638445487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.337057921667267</v>
+        <v>9.337057921667263</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.696990593209151</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4902808542014824</v>
+        <v>0.1387906416853266</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1939015730765911</v>
+        <v>0.1910744474954031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.157471100855221</v>
+        <v>6.081755419044676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7615039945911131</v>
+        <v>0.6075156732224094</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.768030780740391</v>
+        <v>2.386550775456269</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.256895186210141</v>
+        <v>7.032951368269077</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.402306160861684</v>
+        <v>1.529596452532056</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.346772016837237</v>
+        <v>2.255945949223466</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.672844288444145</v>
+        <v>7.385593361918032</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.540319083208685</v>
+        <v>7.200443101514033</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.904303750137304</v>
+        <v>7.325328193073309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.42967525972209</v>
+        <v>12.36048090702682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.750232788606411</v>
+        <v>8.844439702764319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.62784533864017</v>
+        <v>10.81314770590411</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.31290213152665</v>
+        <v>13.38480817373341</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.581889005960837</v>
+        <v>6.83552136444886</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.822160211209604</v>
+        <v>7.628054773555867</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.05678147659094</v>
+        <v>11.97600876235553</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04178322625420573</v>
+        <v>0.004150831171535056</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01324907837234778</v>
+        <v>-0.001886948812286945</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7373220832799461</v>
+        <v>0.6996437082995089</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07629003288947332</v>
+        <v>0.04465573708700474</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3133047272125309</v>
+        <v>0.2649717134074487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8336400043067677</v>
+        <v>0.7890219800505449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1887524334543127</v>
+        <v>0.2085822992713938</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3403402113256989</v>
+        <v>0.3038596825001826</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.978446647174431</v>
+        <v>0.9483412602166308</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.672786400316049</v>
+        <v>1.716801181170166</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.592504064112489</v>
+        <v>1.645190407786124</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.988471724255057</v>
+        <v>2.856097654756943</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.120098275265151</v>
+        <v>2.020099989209364</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.746671620930515</v>
+        <v>2.571037275087926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.3571567812688</v>
+        <v>3.35903361078992</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.396132562690636</v>
+        <v>1.406111533105642</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.675638048816797</v>
+        <v>1.536769340172281</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.539756157529715</v>
+        <v>2.54817624963178</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.564964092653898</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.692072910949489</v>
+        <v>6.692072910949483</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.442430072222502</v>
@@ -1520,7 +1520,7 @@
         <v>3.205581282781744</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.258468089212974</v>
+        <v>6.258468089212965</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.077483014144376</v>
+        <v>2.118989283429438</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.161468120055714</v>
+        <v>2.232390669042736</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.169990337343049</v>
+        <v>5.166580922970081</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.777885246394693</v>
+        <v>1.91055924866995</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.203655963472022</v>
+        <v>1.220171460987458</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.295023111405953</v>
+        <v>4.46871976641197</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.35555379458726</v>
+        <v>2.343804667266704</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.065978900032535</v>
+        <v>2.100640285722821</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.179883908184903</v>
+        <v>5.269347185016806</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.961081480552115</v>
+        <v>5.013676100064265</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.018890709546561</v>
+        <v>5.040840522318094</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.118269784811289</v>
+        <v>8.114791637001725</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.980397576487702</v>
+        <v>5.230515280136014</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.448179428214708</v>
+        <v>4.49610324771617</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.132631503194927</v>
+        <v>7.228988392224209</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.65793560667468</v>
+        <v>4.614076984441079</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.220879202290357</v>
+        <v>4.319138389399122</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.228034552409516</v>
+        <v>7.299497788487093</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4565019069228549</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8569354320876209</v>
+        <v>0.8569354320876202</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3320997242533782</v>
@@ -1625,7 +1625,7 @@
         <v>0.352110405544904</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.687448404075505</v>
+        <v>0.6874484040755041</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2413116655972767</v>
+        <v>0.2566558943955436</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2541786071621823</v>
+        <v>0.2545782567911299</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.608014671740742</v>
+        <v>0.6029978018453007</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1580679307857388</v>
+        <v>0.1731996594603827</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1053229410588957</v>
+        <v>0.1119187785279077</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3787256258835127</v>
+        <v>0.3943861159829525</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2472737842134274</v>
+        <v>0.2456733208134245</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2122132572027478</v>
+        <v>0.2167347012184181</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5300784859042912</v>
+        <v>0.5467555543726759</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6883305643408018</v>
+        <v>0.6941038607027316</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7072760302815918</v>
+        <v>0.7193171372616584</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.115703675528451</v>
+        <v>1.154120958953266</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5174292394344572</v>
+        <v>0.5456609681939893</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4585699553697997</v>
+        <v>0.4720058023519714</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7436205483868118</v>
+        <v>0.7509367275189203</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5472274640526954</v>
+        <v>0.5340379169224138</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4881841539658291</v>
+        <v>0.5040031387956725</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8382774505916528</v>
+        <v>0.8514151303757818</v>
       </c>
     </row>
     <row r="34">
